--- a/test.xlsx
+++ b/test.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GUI\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4587CB0C-D87F-41AB-B60D-E6E3128AA442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F079FD76-D556-47F9-9EEA-1A3BEC5138C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="健檢資料" sheetId="1" r:id="rId1"/>
-    <sheet name="111" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">健檢資料!$A:$T</definedName>
@@ -68,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="73">
   <si>
     <t>年度代碼</t>
   </si>
@@ -287,20 +286,16 @@
   </si>
   <si>
     <t>陳奕同</t>
-  </si>
-  <si>
-    <t>超過標準數</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -374,13 +369,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="1"/>
@@ -388,7 +376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,34 +407,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -458,7 +425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -525,36 +492,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -896,11 +833,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:Q28"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.75" style="3" customWidth="1"/>
@@ -915,11 +852,11 @@
     <col min="18" max="18" width="16.125" style="1" customWidth="1"/>
     <col min="19" max="19" width="41.125" style="1" customWidth="1"/>
     <col min="20" max="20" width="24.75" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="1"/>
+    <col min="21" max="34" width="9" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -981,7 +918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="3" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>20</v>
       </c>
@@ -1041,7 +978,7 @@
       </c>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="3" customFormat="1">
       <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
@@ -1101,7 +1038,7 @@
       </c>
       <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="3" customFormat="1">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
@@ -1161,7 +1098,7 @@
       </c>
       <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="3" customFormat="1">
       <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
@@ -1221,7 +1158,7 @@
       </c>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="3" customFormat="1">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
@@ -1281,7 +1218,7 @@
       </c>
       <c r="T6" s="11"/>
     </row>
-    <row r="7" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="3" customFormat="1">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
@@ -1341,7 +1278,7 @@
       </c>
       <c r="T7" s="11"/>
     </row>
-    <row r="8" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="3" customFormat="1">
       <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
@@ -1401,7 +1338,7 @@
       </c>
       <c r="T8" s="11"/>
     </row>
-    <row r="9" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="3" customFormat="1">
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
@@ -1461,7 +1398,7 @@
       </c>
       <c r="T9" s="11"/>
     </row>
-    <row r="10" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="3" customFormat="1">
       <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
@@ -1521,7 +1458,7 @@
       </c>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="3" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
@@ -1581,7 +1518,7 @@
       </c>
       <c r="T11" s="11"/>
     </row>
-    <row r="12" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="3" customFormat="1">
       <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
@@ -1641,7 +1578,7 @@
       </c>
       <c r="T12" s="11"/>
     </row>
-    <row r="13" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="3" customFormat="1">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
@@ -1701,7 +1638,7 @@
       </c>
       <c r="T13" s="11"/>
     </row>
-    <row r="14" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="3" customFormat="1">
       <c r="A14" s="11" t="s">
         <v>20</v>
       </c>
@@ -1761,7 +1698,7 @@
       </c>
       <c r="T14" s="11"/>
     </row>
-    <row r="15" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="3" customFormat="1">
       <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
@@ -1821,7 +1758,7 @@
       </c>
       <c r="T15" s="11"/>
     </row>
-    <row r="16" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="3" customFormat="1">
       <c r="A16" s="11" t="s">
         <v>20</v>
       </c>
@@ -1881,7 +1818,7 @@
       </c>
       <c r="T16" s="11"/>
     </row>
-    <row r="17" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="3" customFormat="1">
       <c r="A17" s="11" t="s">
         <v>20</v>
       </c>
@@ -1941,7 +1878,7 @@
       </c>
       <c r="T17" s="11"/>
     </row>
-    <row r="18" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="3" customFormat="1">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
@@ -2001,7 +1938,7 @@
       </c>
       <c r="T18" s="11"/>
     </row>
-    <row r="19" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="3" customFormat="1">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -2061,7 +1998,7 @@
       </c>
       <c r="T19" s="11"/>
     </row>
-    <row r="20" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="3" customFormat="1">
       <c r="A20" s="11" t="s">
         <v>20</v>
       </c>
@@ -2121,7 +2058,7 @@
       </c>
       <c r="T20" s="11"/>
     </row>
-    <row r="21" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="3" customFormat="1">
       <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
@@ -2181,7 +2118,7 @@
       </c>
       <c r="T21" s="11"/>
     </row>
-    <row r="22" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="3" customFormat="1">
       <c r="A22" s="11" t="s">
         <v>20</v>
       </c>
@@ -2241,7 +2178,7 @@
       </c>
       <c r="T22" s="11"/>
     </row>
-    <row r="23" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="3" customFormat="1">
       <c r="A23" s="11" t="s">
         <v>20</v>
       </c>
@@ -2301,7 +2238,7 @@
       </c>
       <c r="T23" s="11"/>
     </row>
-    <row r="24" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="3" customFormat="1">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
@@ -2361,7 +2298,7 @@
       </c>
       <c r="T24" s="11"/>
     </row>
-    <row r="25" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" s="3" customFormat="1">
       <c r="A25" s="11" t="s">
         <v>20</v>
       </c>
@@ -2421,7 +2358,7 @@
       </c>
       <c r="T25" s="11"/>
     </row>
-    <row r="26" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="3" customFormat="1">
       <c r="A26" s="11" t="s">
         <v>20</v>
       </c>
@@ -2481,7 +2418,7 @@
       </c>
       <c r="T26" s="11"/>
     </row>
-    <row r="27" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="3" customFormat="1">
       <c r="A27" s="11" t="s">
         <v>20</v>
       </c>
@@ -2541,7 +2478,7 @@
       </c>
       <c r="T27" s="11"/>
     </row>
-    <row r="28" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="3" customFormat="1">
       <c r="A28" s="11" t="s">
         <v>20</v>
       </c>
@@ -2601,7 +2538,7 @@
       </c>
       <c r="T28" s="11"/>
     </row>
-    <row r="29" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="3" customFormat="1">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -2623,7 +2560,7 @@
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
     </row>
-    <row r="30" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" s="3" customFormat="1">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2645,7 +2582,7 @@
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
     </row>
-    <row r="31" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="3" customFormat="1">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2667,7 +2604,7 @@
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2679,7 +2616,7 @@
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
     </row>
-    <row r="33" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:17">
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2693,7 +2630,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:T1048576" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
@@ -2702,1800 +2639,4 @@
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="19" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="19" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="19" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="19" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="19" customWidth="1"/>
-    <col min="9" max="16" width="13" style="19" customWidth="1"/>
-    <col min="17" max="17" width="15" style="19" customWidth="1"/>
-    <col min="18" max="18" width="16.125" style="19" customWidth="1"/>
-    <col min="19" max="19" width="41.125" style="19" customWidth="1"/>
-    <col min="20" max="20" width="24.75" style="19" customWidth="1"/>
-    <col min="21" max="21" width="20" style="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="27">
-        <v>60026</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="29">
-        <v>31282</v>
-      </c>
-      <c r="H2" s="27">
-        <v>177.5</v>
-      </c>
-      <c r="I2" s="27">
-        <v>121.6</v>
-      </c>
-      <c r="J2" s="28">
-        <v>115.5</v>
-      </c>
-      <c r="K2" s="28">
-        <v>146</v>
-      </c>
-      <c r="L2" s="28">
-        <v>89</v>
-      </c>
-      <c r="M2" s="28">
-        <v>130</v>
-      </c>
-      <c r="N2" s="27">
-        <v>195</v>
-      </c>
-      <c r="O2" s="28">
-        <v>161</v>
-      </c>
-      <c r="P2" s="27">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="27">
-        <v>111</v>
-      </c>
-      <c r="R2" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="27">
-        <v>8732</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="29">
-        <v>30522</v>
-      </c>
-      <c r="H3" s="27">
-        <v>174.1</v>
-      </c>
-      <c r="I3" s="27">
-        <v>90.5</v>
-      </c>
-      <c r="J3" s="28">
-        <v>101</v>
-      </c>
-      <c r="K3" s="28">
-        <v>130</v>
-      </c>
-      <c r="L3" s="27">
-        <v>84</v>
-      </c>
-      <c r="M3" s="28">
-        <v>102</v>
-      </c>
-      <c r="N3" s="27">
-        <v>178</v>
-      </c>
-      <c r="O3" s="27">
-        <v>104</v>
-      </c>
-      <c r="P3" s="28">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="27">
-        <v>118</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="27">
-        <v>8738</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="29">
-        <v>31450</v>
-      </c>
-      <c r="H4" s="27">
-        <v>174.7</v>
-      </c>
-      <c r="I4" s="27">
-        <v>102.3</v>
-      </c>
-      <c r="J4" s="28">
-        <v>99</v>
-      </c>
-      <c r="K4" s="28">
-        <v>137</v>
-      </c>
-      <c r="L4" s="28">
-        <v>94</v>
-      </c>
-      <c r="M4" s="27">
-        <v>98</v>
-      </c>
-      <c r="N4" s="27">
-        <v>251</v>
-      </c>
-      <c r="O4" s="28">
-        <v>182</v>
-      </c>
-      <c r="P4" s="27">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="27">
-        <v>173</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="27">
-        <v>60014</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="29">
-        <v>29286</v>
-      </c>
-      <c r="H5" s="27">
-        <v>172.4</v>
-      </c>
-      <c r="I5" s="27">
-        <v>80</v>
-      </c>
-      <c r="J5" s="28">
-        <v>90</v>
-      </c>
-      <c r="K5" s="28">
-        <v>133</v>
-      </c>
-      <c r="L5" s="28">
-        <v>90</v>
-      </c>
-      <c r="M5" s="27">
-        <v>91</v>
-      </c>
-      <c r="N5" s="27">
-        <v>219</v>
-      </c>
-      <c r="O5" s="27">
-        <v>87</v>
-      </c>
-      <c r="P5" s="27">
-        <v>61</v>
-      </c>
-      <c r="Q5" s="27">
-        <v>141</v>
-      </c>
-      <c r="R5" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S5" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="27">
-        <v>8725</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="29">
-        <v>36192</v>
-      </c>
-      <c r="H6" s="27">
-        <v>171</v>
-      </c>
-      <c r="I6" s="27">
-        <v>63.7</v>
-      </c>
-      <c r="J6" s="27">
-        <v>76</v>
-      </c>
-      <c r="K6" s="28">
-        <v>137</v>
-      </c>
-      <c r="L6" s="28">
-        <v>90</v>
-      </c>
-      <c r="M6" s="27">
-        <v>98</v>
-      </c>
-      <c r="N6" s="27">
-        <v>188</v>
-      </c>
-      <c r="O6" s="28">
-        <v>174</v>
-      </c>
-      <c r="P6" s="27">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="27">
-        <v>122</v>
-      </c>
-      <c r="R6" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S6" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="27">
-        <v>60017</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="29">
-        <v>29230</v>
-      </c>
-      <c r="H7" s="27">
-        <v>161</v>
-      </c>
-      <c r="I7" s="27">
-        <v>58</v>
-      </c>
-      <c r="J7" s="28">
-        <v>81</v>
-      </c>
-      <c r="K7" s="28">
-        <v>140</v>
-      </c>
-      <c r="L7" s="28">
-        <v>90</v>
-      </c>
-      <c r="M7" s="27">
-        <v>83</v>
-      </c>
-      <c r="N7" s="27">
-        <v>180</v>
-      </c>
-      <c r="O7" s="27">
-        <v>86</v>
-      </c>
-      <c r="P7" s="27">
-        <v>72</v>
-      </c>
-      <c r="Q7" s="27">
-        <v>91</v>
-      </c>
-      <c r="R7" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S7" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="27">
-        <v>8720</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="29">
-        <v>32152</v>
-      </c>
-      <c r="H8" s="27">
-        <v>156.30000000000001</v>
-      </c>
-      <c r="I8" s="27">
-        <v>65.3</v>
-      </c>
-      <c r="J8" s="27">
-        <v>71</v>
-      </c>
-      <c r="K8" s="28">
-        <v>138</v>
-      </c>
-      <c r="L8" s="28">
-        <v>103</v>
-      </c>
-      <c r="M8" s="28">
-        <v>103</v>
-      </c>
-      <c r="N8" s="27">
-        <v>218</v>
-      </c>
-      <c r="O8" s="27">
-        <v>69</v>
-      </c>
-      <c r="P8" s="27">
-        <v>125</v>
-      </c>
-      <c r="Q8" s="27">
-        <v>79</v>
-      </c>
-      <c r="R8" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S8" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="27">
-        <v>60008</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="29">
-        <v>30827</v>
-      </c>
-      <c r="H9" s="27">
-        <v>160.6</v>
-      </c>
-      <c r="I9" s="27">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="J9" s="27">
-        <v>79.5</v>
-      </c>
-      <c r="K9" s="27">
-        <v>123</v>
-      </c>
-      <c r="L9" s="27">
-        <v>81</v>
-      </c>
-      <c r="M9" s="28">
-        <v>100</v>
-      </c>
-      <c r="N9" s="27">
-        <v>209</v>
-      </c>
-      <c r="O9" s="27">
-        <v>94</v>
-      </c>
-      <c r="P9" s="28">
-        <v>49</v>
-      </c>
-      <c r="Q9" s="27">
-        <v>141</v>
-      </c>
-      <c r="R9" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S9" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="27">
-        <v>60023</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="29">
-        <v>30193</v>
-      </c>
-      <c r="H10" s="27">
-        <v>168.8</v>
-      </c>
-      <c r="I10" s="27">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="J10" s="27">
-        <v>82.5</v>
-      </c>
-      <c r="K10" s="27">
-        <v>127</v>
-      </c>
-      <c r="L10" s="28">
-        <v>91</v>
-      </c>
-      <c r="M10" s="27">
-        <v>88</v>
-      </c>
-      <c r="N10" s="27">
-        <v>211</v>
-      </c>
-      <c r="O10" s="28">
-        <v>279</v>
-      </c>
-      <c r="P10" s="27">
-        <v>43</v>
-      </c>
-      <c r="Q10" s="27">
-        <v>112</v>
-      </c>
-      <c r="R10" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S10" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="27">
-        <v>60042</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="29">
-        <v>30468</v>
-      </c>
-      <c r="H11" s="27">
-        <v>162</v>
-      </c>
-      <c r="I11" s="27">
-        <v>67.3</v>
-      </c>
-      <c r="J11" s="28">
-        <v>80</v>
-      </c>
-      <c r="K11" s="27">
-        <v>106</v>
-      </c>
-      <c r="L11" s="27">
-        <v>59</v>
-      </c>
-      <c r="M11" s="27">
-        <v>89</v>
-      </c>
-      <c r="N11" s="27">
-        <v>126</v>
-      </c>
-      <c r="O11" s="27">
-        <v>63</v>
-      </c>
-      <c r="P11" s="28">
-        <v>38.4</v>
-      </c>
-      <c r="Q11" s="27">
-        <v>85</v>
-      </c>
-      <c r="R11" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S11" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="27">
-        <v>60015</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="29">
-        <v>29092</v>
-      </c>
-      <c r="H12" s="27">
-        <v>181</v>
-      </c>
-      <c r="I12" s="27">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="J12" s="27">
-        <v>78</v>
-      </c>
-      <c r="K12" s="27">
-        <v>119</v>
-      </c>
-      <c r="L12" s="28">
-        <v>89</v>
-      </c>
-      <c r="M12" s="27">
-        <v>94</v>
-      </c>
-      <c r="N12" s="27">
-        <v>227</v>
-      </c>
-      <c r="O12" s="28">
-        <v>177</v>
-      </c>
-      <c r="P12" s="27">
-        <v>58</v>
-      </c>
-      <c r="Q12" s="27">
-        <v>128</v>
-      </c>
-      <c r="R12" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S12" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="27">
-        <v>8719</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="29">
-        <v>31026</v>
-      </c>
-      <c r="H13" s="27">
-        <v>173.6</v>
-      </c>
-      <c r="I13" s="27">
-        <v>73.7</v>
-      </c>
-      <c r="J13" s="27">
-        <v>83</v>
-      </c>
-      <c r="K13" s="27">
-        <v>128</v>
-      </c>
-      <c r="L13" s="28">
-        <v>86</v>
-      </c>
-      <c r="M13" s="28">
-        <v>104</v>
-      </c>
-      <c r="N13" s="27">
-        <v>194</v>
-      </c>
-      <c r="O13" s="27">
-        <v>59</v>
-      </c>
-      <c r="P13" s="27">
-        <v>55</v>
-      </c>
-      <c r="Q13" s="27">
-        <v>127</v>
-      </c>
-      <c r="R13" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S13" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="27">
-        <v>8715</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="29">
-        <v>27390</v>
-      </c>
-      <c r="H14" s="27">
-        <v>172</v>
-      </c>
-      <c r="I14" s="27">
-        <v>92</v>
-      </c>
-      <c r="J14" s="27">
-        <v>39</v>
-      </c>
-      <c r="K14" s="28">
-        <v>139</v>
-      </c>
-      <c r="L14" s="28">
-        <v>109</v>
-      </c>
-      <c r="M14" s="27">
-        <v>83</v>
-      </c>
-      <c r="N14" s="27">
-        <v>240</v>
-      </c>
-      <c r="O14" s="27">
-        <v>121</v>
-      </c>
-      <c r="P14" s="27">
-        <v>58</v>
-      </c>
-      <c r="Q14" s="27">
-        <v>157</v>
-      </c>
-      <c r="R14" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S14" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="27">
-        <v>60031</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="29">
-        <v>28579</v>
-      </c>
-      <c r="H15" s="27">
-        <v>172.8</v>
-      </c>
-      <c r="I15" s="27">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="J15" s="27">
-        <v>75</v>
-      </c>
-      <c r="K15" s="28">
-        <v>132</v>
-      </c>
-      <c r="L15" s="28">
-        <v>88</v>
-      </c>
-      <c r="M15" s="27">
-        <v>91</v>
-      </c>
-      <c r="N15" s="27">
-        <v>225</v>
-      </c>
-      <c r="O15" s="27">
-        <v>92</v>
-      </c>
-      <c r="P15" s="27">
-        <v>42</v>
-      </c>
-      <c r="Q15" s="27">
-        <v>165</v>
-      </c>
-      <c r="R15" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S15" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="27">
-        <v>60007</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="29">
-        <v>34486</v>
-      </c>
-      <c r="H16" s="27">
-        <v>170.7</v>
-      </c>
-      <c r="I16" s="27">
-        <v>78.5</v>
-      </c>
-      <c r="J16" s="27">
-        <v>85</v>
-      </c>
-      <c r="K16" s="27">
-        <v>124</v>
-      </c>
-      <c r="L16" s="27">
-        <v>70</v>
-      </c>
-      <c r="M16" s="27">
-        <v>94</v>
-      </c>
-      <c r="N16" s="27">
-        <v>197</v>
-      </c>
-      <c r="O16" s="28">
-        <v>195</v>
-      </c>
-      <c r="P16" s="28">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="27">
-        <v>127</v>
-      </c>
-      <c r="R16" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="S16" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="27">
-        <v>60010</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="29">
-        <v>31410</v>
-      </c>
-      <c r="H17" s="27">
-        <v>170.1</v>
-      </c>
-      <c r="I17" s="27">
-        <v>69.2</v>
-      </c>
-      <c r="J17" s="27">
-        <v>79</v>
-      </c>
-      <c r="K17" s="27">
-        <v>128</v>
-      </c>
-      <c r="L17" s="28">
-        <v>89</v>
-      </c>
-      <c r="M17" s="27">
-        <v>95</v>
-      </c>
-      <c r="N17" s="27">
-        <v>236</v>
-      </c>
-      <c r="O17" s="27">
-        <v>121</v>
-      </c>
-      <c r="P17" s="27">
-        <v>47</v>
-      </c>
-      <c r="Q17" s="27">
-        <v>165</v>
-      </c>
-      <c r="R17" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S17" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="27">
-        <v>60022</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="29">
-        <v>29300</v>
-      </c>
-      <c r="H18" s="27">
-        <v>169.3</v>
-      </c>
-      <c r="I18" s="27">
-        <v>59.4</v>
-      </c>
-      <c r="J18" s="27">
-        <v>73</v>
-      </c>
-      <c r="K18" s="27">
-        <v>120</v>
-      </c>
-      <c r="L18" s="28">
-        <v>86</v>
-      </c>
-      <c r="M18" s="27">
-        <v>95</v>
-      </c>
-      <c r="N18" s="27">
-        <v>205</v>
-      </c>
-      <c r="O18" s="27">
-        <v>90</v>
-      </c>
-      <c r="P18" s="27">
-        <v>75</v>
-      </c>
-      <c r="Q18" s="27">
-        <v>112</v>
-      </c>
-      <c r="R18" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S18" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="27">
-        <v>60045</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="29">
-        <v>29756</v>
-      </c>
-      <c r="H19" s="27">
-        <v>171.5</v>
-      </c>
-      <c r="I19" s="27">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="J19" s="27">
-        <v>78</v>
-      </c>
-      <c r="K19" s="27">
-        <v>123</v>
-      </c>
-      <c r="L19" s="27">
-        <v>84</v>
-      </c>
-      <c r="M19" s="27">
-        <v>91</v>
-      </c>
-      <c r="N19" s="27">
-        <v>208</v>
-      </c>
-      <c r="O19" s="28">
-        <v>350</v>
-      </c>
-      <c r="P19" s="27">
-        <v>43</v>
-      </c>
-      <c r="Q19" s="27">
-        <v>95</v>
-      </c>
-      <c r="R19" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S19" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="27">
-        <v>60050</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="29">
-        <v>27532</v>
-      </c>
-      <c r="H20" s="27">
-        <v>173.6</v>
-      </c>
-      <c r="I20" s="27">
-        <v>69.5</v>
-      </c>
-      <c r="J20" s="27">
-        <v>81.5</v>
-      </c>
-      <c r="K20" s="27">
-        <v>124</v>
-      </c>
-      <c r="L20" s="27">
-        <v>82</v>
-      </c>
-      <c r="M20" s="27">
-        <v>99</v>
-      </c>
-      <c r="N20" s="27">
-        <v>241</v>
-      </c>
-      <c r="O20" s="28">
-        <v>370</v>
-      </c>
-      <c r="P20" s="27">
-        <v>43</v>
-      </c>
-      <c r="Q20" s="27">
-        <v>124</v>
-      </c>
-      <c r="R20" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S20" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="27">
-        <v>8682</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="29">
-        <v>29920</v>
-      </c>
-      <c r="H21" s="27">
-        <v>157.19999999999999</v>
-      </c>
-      <c r="I21" s="27">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="J21" s="27">
-        <v>82</v>
-      </c>
-      <c r="K21" s="27">
-        <v>116</v>
-      </c>
-      <c r="L21" s="27">
-        <v>72</v>
-      </c>
-      <c r="M21" s="27">
-        <v>96</v>
-      </c>
-      <c r="N21" s="27">
-        <v>222</v>
-      </c>
-      <c r="O21" s="28">
-        <v>200</v>
-      </c>
-      <c r="P21" s="27">
-        <v>60</v>
-      </c>
-      <c r="Q21" s="27">
-        <v>138</v>
-      </c>
-      <c r="R21" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S21" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="27">
-        <v>8731</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="29">
-        <v>34434</v>
-      </c>
-      <c r="H22" s="27">
-        <v>164.2</v>
-      </c>
-      <c r="I22" s="27">
-        <v>66.2</v>
-      </c>
-      <c r="J22" s="27">
-        <v>79.5</v>
-      </c>
-      <c r="K22" s="27">
-        <v>114</v>
-      </c>
-      <c r="L22" s="27">
-        <v>54</v>
-      </c>
-      <c r="M22" s="27">
-        <v>95</v>
-      </c>
-      <c r="N22" s="27">
-        <v>186</v>
-      </c>
-      <c r="O22" s="27">
-        <v>59</v>
-      </c>
-      <c r="P22" s="27">
-        <v>57</v>
-      </c>
-      <c r="Q22" s="27">
-        <v>117</v>
-      </c>
-      <c r="R22" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S22" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="27">
-        <v>60018</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="29">
-        <v>34709</v>
-      </c>
-      <c r="H23" s="27">
-        <v>163.1</v>
-      </c>
-      <c r="I23" s="27">
-        <v>63.8</v>
-      </c>
-      <c r="J23" s="27">
-        <v>74.5</v>
-      </c>
-      <c r="K23" s="27">
-        <v>123</v>
-      </c>
-      <c r="L23" s="27">
-        <v>81</v>
-      </c>
-      <c r="M23" s="27">
-        <v>90</v>
-      </c>
-      <c r="N23" s="27">
-        <v>217</v>
-      </c>
-      <c r="O23" s="27">
-        <v>88</v>
-      </c>
-      <c r="P23" s="27">
-        <v>53</v>
-      </c>
-      <c r="Q23" s="27">
-        <v>146</v>
-      </c>
-      <c r="R23" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S23" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="27">
-        <v>8722</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="29">
-        <v>26320</v>
-      </c>
-      <c r="H24" s="27">
-        <v>167</v>
-      </c>
-      <c r="I24" s="27">
-        <v>56.7</v>
-      </c>
-      <c r="J24" s="27">
-        <v>79</v>
-      </c>
-      <c r="K24" s="27">
-        <v>94</v>
-      </c>
-      <c r="L24" s="27">
-        <v>65</v>
-      </c>
-      <c r="M24" s="27">
-        <v>96</v>
-      </c>
-      <c r="N24" s="27">
-        <v>185</v>
-      </c>
-      <c r="O24" s="27">
-        <v>61</v>
-      </c>
-      <c r="P24" s="27">
-        <v>74</v>
-      </c>
-      <c r="Q24" s="27">
-        <v>99</v>
-      </c>
-      <c r="R24" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S24" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="27">
-        <v>8681</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="29">
-        <v>33927</v>
-      </c>
-      <c r="H25" s="27">
-        <v>170.5</v>
-      </c>
-      <c r="I25" s="27">
-        <v>54.1</v>
-      </c>
-      <c r="J25" s="27">
-        <v>60</v>
-      </c>
-      <c r="K25" s="27">
-        <v>114</v>
-      </c>
-      <c r="L25" s="27">
-        <v>77</v>
-      </c>
-      <c r="M25" s="27">
-        <v>91</v>
-      </c>
-      <c r="N25" s="27">
-        <v>183</v>
-      </c>
-      <c r="O25" s="27">
-        <v>56</v>
-      </c>
-      <c r="P25" s="27">
-        <v>86</v>
-      </c>
-      <c r="Q25" s="27">
-        <v>86</v>
-      </c>
-      <c r="R25" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S25" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="27">
-        <v>60024</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="29">
-        <v>29255</v>
-      </c>
-      <c r="H26" s="27">
-        <v>156.4</v>
-      </c>
-      <c r="I26" s="27">
-        <v>49.1</v>
-      </c>
-      <c r="J26" s="27">
-        <v>62</v>
-      </c>
-      <c r="K26" s="27">
-        <v>103</v>
-      </c>
-      <c r="L26" s="27">
-        <v>74</v>
-      </c>
-      <c r="M26" s="27">
-        <v>88</v>
-      </c>
-      <c r="N26" s="27">
-        <v>168</v>
-      </c>
-      <c r="O26" s="27">
-        <v>61</v>
-      </c>
-      <c r="P26" s="27">
-        <v>75</v>
-      </c>
-      <c r="Q26" s="27">
-        <v>81</v>
-      </c>
-      <c r="R26" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S26" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="27">
-        <v>60049</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="29">
-        <v>29259</v>
-      </c>
-      <c r="H27" s="27">
-        <v>163.69999999999999</v>
-      </c>
-      <c r="I27" s="27">
-        <v>51.1</v>
-      </c>
-      <c r="J27" s="27">
-        <v>67</v>
-      </c>
-      <c r="K27" s="27">
-        <v>128</v>
-      </c>
-      <c r="L27" s="27">
-        <v>80</v>
-      </c>
-      <c r="M27" s="27">
-        <v>90</v>
-      </c>
-      <c r="N27" s="27">
-        <v>163</v>
-      </c>
-      <c r="O27" s="27">
-        <v>75</v>
-      </c>
-      <c r="P27" s="27">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="27">
-        <v>89</v>
-      </c>
-      <c r="R27" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S27" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="27">
-        <v>8620</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="29">
-        <v>30483</v>
-      </c>
-      <c r="H28" s="27">
-        <v>172</v>
-      </c>
-      <c r="I28" s="27">
-        <v>68.5</v>
-      </c>
-      <c r="J28" s="27">
-        <v>79</v>
-      </c>
-      <c r="K28" s="27">
-        <v>122</v>
-      </c>
-      <c r="L28" s="27">
-        <v>69</v>
-      </c>
-      <c r="M28" s="27">
-        <v>91</v>
-      </c>
-      <c r="N28" s="27">
-        <v>161</v>
-      </c>
-      <c r="O28" s="27">
-        <v>108</v>
-      </c>
-      <c r="P28" s="27">
-        <v>40</v>
-      </c>
-      <c r="Q28" s="27">
-        <v>99</v>
-      </c>
-      <c r="R28" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="S28" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>